--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.04266066666666666</v>
+        <v>0.02942666666666667</v>
       </c>
       <c r="H2">
-        <v>0.127982</v>
+        <v>0.08828</v>
       </c>
       <c r="I2">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923747</v>
       </c>
       <c r="J2">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923746</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.09309933333333333</v>
+        <v>0.254776</v>
       </c>
       <c r="N2">
-        <v>0.279298</v>
+        <v>0.764328</v>
       </c>
       <c r="O2">
-        <v>0.09868343413743418</v>
+        <v>0.2586256426914624</v>
       </c>
       <c r="P2">
-        <v>0.09868343413743418</v>
+        <v>0.2586256426914624</v>
       </c>
       <c r="Q2">
-        <v>0.003971679626222221</v>
+        <v>0.007497208426666666</v>
       </c>
       <c r="R2">
-        <v>0.035745116636</v>
+        <v>0.06747487584</v>
       </c>
       <c r="S2">
-        <v>0.001588835778425431</v>
+        <v>0.007483117934203382</v>
       </c>
       <c r="T2">
-        <v>0.00158883577842543</v>
+        <v>0.00748311793420338</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.04266066666666666</v>
+        <v>0.02942666666666667</v>
       </c>
       <c r="H3">
-        <v>0.127982</v>
+        <v>0.08828</v>
       </c>
       <c r="I3">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923747</v>
       </c>
       <c r="J3">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923746</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>1.324506</v>
       </c>
       <c r="O3">
-        <v>0.4679833031945678</v>
+        <v>0.4481730559376317</v>
       </c>
       <c r="P3">
-        <v>0.4679833031945678</v>
+        <v>0.4481730559376316</v>
       </c>
       <c r="Q3">
-        <v>0.01883476965466666</v>
+        <v>0.01299193218666667</v>
       </c>
       <c r="R3">
-        <v>0.169512926892</v>
+        <v>0.11692738968</v>
       </c>
       <c r="S3">
-        <v>0.007534685252093297</v>
+        <v>0.01296751473524454</v>
       </c>
       <c r="T3">
-        <v>0.007534685252093295</v>
+        <v>0.01296751473524453</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.04266066666666666</v>
+        <v>0.02942666666666667</v>
       </c>
       <c r="H4">
-        <v>0.127982</v>
+        <v>0.08828</v>
       </c>
       <c r="I4">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923747</v>
       </c>
       <c r="J4">
-        <v>0.01610032922255923</v>
+        <v>0.02893416853923746</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4088126666666667</v>
+        <v>0.288837</v>
       </c>
       <c r="N4">
-        <v>1.226438</v>
+        <v>0.866511</v>
       </c>
       <c r="O4">
-        <v>0.433333262667998</v>
+        <v>0.2932013013709059</v>
       </c>
       <c r="P4">
-        <v>0.4333332626679979</v>
+        <v>0.2932013013709059</v>
       </c>
       <c r="Q4">
-        <v>0.01744022090177777</v>
+        <v>0.00849951012</v>
       </c>
       <c r="R4">
-        <v>0.156961988116</v>
+        <v>0.07649559107999999</v>
       </c>
       <c r="S4">
-        <v>0.006976808192040503</v>
+        <v>0.00848353586978955</v>
       </c>
       <c r="T4">
-        <v>0.006976808192040501</v>
+        <v>0.008483535869789546</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.216235</v>
+        <v>0.04158733333333333</v>
       </c>
       <c r="H5">
-        <v>0.6487050000000001</v>
+        <v>0.124762</v>
       </c>
       <c r="I5">
-        <v>0.08160807041865488</v>
+        <v>0.04089130873688655</v>
       </c>
       <c r="J5">
-        <v>0.08160807041865487</v>
+        <v>0.04089130873688654</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09309933333333333</v>
+        <v>0.254776</v>
       </c>
       <c r="N5">
-        <v>0.279298</v>
+        <v>0.764328</v>
       </c>
       <c r="O5">
-        <v>0.09868343413743418</v>
+        <v>0.2586256426914624</v>
       </c>
       <c r="P5">
-        <v>0.09868343413743418</v>
+        <v>0.2586256426914624</v>
       </c>
       <c r="Q5">
-        <v>0.02013133434333333</v>
+        <v>0.01059545443733333</v>
       </c>
       <c r="R5">
-        <v>0.18118200909</v>
+        <v>0.09535908993599999</v>
       </c>
       <c r="S5">
-        <v>0.008053364642242419</v>
+        <v>0.0105755410025723</v>
       </c>
       <c r="T5">
-        <v>0.008053364642242418</v>
+        <v>0.01057554100257229</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.216235</v>
+        <v>0.04158733333333333</v>
       </c>
       <c r="H6">
-        <v>0.6487050000000001</v>
+        <v>0.124762</v>
       </c>
       <c r="I6">
-        <v>0.08160807041865488</v>
+        <v>0.04089130873688655</v>
       </c>
       <c r="J6">
-        <v>0.08160807041865487</v>
+        <v>0.04089130873688654</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,22 +812,22 @@
         <v>1.324506</v>
       </c>
       <c r="O6">
-        <v>0.4679833031945678</v>
+        <v>0.4481730559376317</v>
       </c>
       <c r="P6">
-        <v>0.4679833031945678</v>
+        <v>0.4481730559376316</v>
       </c>
       <c r="Q6">
-        <v>0.09546818497000002</v>
+        <v>0.01836089084133333</v>
       </c>
       <c r="R6">
-        <v>0.85921366473</v>
+        <v>0.165248017572</v>
       </c>
       <c r="S6">
-        <v>0.03819121436185701</v>
+        <v>0.01832638279789962</v>
       </c>
       <c r="T6">
-        <v>0.038191214361857</v>
+        <v>0.01832638279789962</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,22 +844,22 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.216235</v>
+        <v>0.04158733333333333</v>
       </c>
       <c r="H7">
-        <v>0.6487050000000001</v>
+        <v>0.124762</v>
       </c>
       <c r="I7">
-        <v>0.08160807041865488</v>
+        <v>0.04089130873688655</v>
       </c>
       <c r="J7">
-        <v>0.08160807041865487</v>
+        <v>0.04089130873688654</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4088126666666667</v>
+        <v>0.288837</v>
       </c>
       <c r="N7">
-        <v>1.226438</v>
+        <v>0.866511</v>
       </c>
       <c r="O7">
-        <v>0.433333262667998</v>
+        <v>0.2932013013709059</v>
       </c>
       <c r="P7">
-        <v>0.4333332626679979</v>
+        <v>0.2932013013709059</v>
       </c>
       <c r="Q7">
-        <v>0.08839960697666668</v>
+        <v>0.012011960598</v>
       </c>
       <c r="R7">
-        <v>0.7955964627900001</v>
+        <v>0.108107645382</v>
       </c>
       <c r="S7">
-        <v>0.03536349141455545</v>
+        <v>0.01198938493641463</v>
       </c>
       <c r="T7">
-        <v>0.03536349141455544</v>
+        <v>0.01198938493641463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.211082333333333</v>
+        <v>0.9379063333333333</v>
       </c>
       <c r="H8">
-        <v>6.633247</v>
+        <v>2.813719</v>
       </c>
       <c r="I8">
-        <v>0.8344725079663808</v>
+        <v>0.9222091047582091</v>
       </c>
       <c r="J8">
-        <v>0.8344725079663808</v>
+        <v>0.9222091047582088</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -930,28 +930,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.09309933333333333</v>
+        <v>0.254776</v>
       </c>
       <c r="N8">
-        <v>0.279298</v>
+        <v>0.764328</v>
       </c>
       <c r="O8">
-        <v>0.09868343413743418</v>
+        <v>0.2586256426914624</v>
       </c>
       <c r="P8">
-        <v>0.09868343413743418</v>
+        <v>0.2586256426914624</v>
       </c>
       <c r="Q8">
-        <v>0.2058502911784444</v>
+        <v>0.2389560239813333</v>
       </c>
       <c r="R8">
-        <v>1.852652620606</v>
+        <v>2.150604215832</v>
       </c>
       <c r="S8">
-        <v>0.08234861277939987</v>
+        <v>0.23850692241401</v>
       </c>
       <c r="T8">
-        <v>0.08234861277939987</v>
+        <v>0.23850692241401</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.211082333333333</v>
+        <v>0.9379063333333333</v>
       </c>
       <c r="H9">
-        <v>6.633247</v>
+        <v>2.813719</v>
       </c>
       <c r="I9">
-        <v>0.8344725079663808</v>
+        <v>0.9222091047582091</v>
       </c>
       <c r="J9">
-        <v>0.8344725079663808</v>
+        <v>0.9222091047582088</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>1.324506</v>
       </c>
       <c r="O9">
-        <v>0.4679833031945678</v>
+        <v>0.4481730559376317</v>
       </c>
       <c r="P9">
-        <v>0.4679833031945678</v>
+        <v>0.4481730559376316</v>
       </c>
       <c r="Q9">
-        <v>0.9761972723313332</v>
+        <v>0.4140875219793333</v>
       </c>
       <c r="R9">
-        <v>8.785775450981999</v>
+        <v>3.726787697814</v>
       </c>
       <c r="S9">
-        <v>0.3905192007031622</v>
+        <v>0.4133092726929941</v>
       </c>
       <c r="T9">
-        <v>0.3905192007031622</v>
+        <v>0.4133092726929939</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.211082333333333</v>
+        <v>0.9379063333333333</v>
       </c>
       <c r="H10">
-        <v>6.633247</v>
+        <v>2.813719</v>
       </c>
       <c r="I10">
-        <v>0.8344725079663808</v>
+        <v>0.9222091047582091</v>
       </c>
       <c r="J10">
-        <v>0.8344725079663808</v>
+        <v>0.9222091047582088</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4088126666666667</v>
+        <v>0.288837</v>
       </c>
       <c r="N10">
-        <v>1.226438</v>
+        <v>0.866511</v>
       </c>
       <c r="O10">
-        <v>0.433333262667998</v>
+        <v>0.2932013013709059</v>
       </c>
       <c r="P10">
-        <v>0.4333332626679979</v>
+        <v>0.2932013013709059</v>
       </c>
       <c r="Q10">
-        <v>0.9039184649095554</v>
+        <v>0.270902051601</v>
       </c>
       <c r="R10">
-        <v>8.135266184185999</v>
+        <v>2.438118464409</v>
       </c>
       <c r="S10">
-        <v>0.3616046944838188</v>
+        <v>0.270392909651205</v>
       </c>
       <c r="T10">
-        <v>0.3616046944838187</v>
+        <v>0.2703929096512049</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.1796986666666667</v>
+        <v>0.008101000000000001</v>
       </c>
       <c r="H11">
-        <v>0.539096</v>
+        <v>0.024303</v>
       </c>
       <c r="I11">
-        <v>0.06781909239240512</v>
+        <v>0.007965417965667061</v>
       </c>
       <c r="J11">
-        <v>0.06781909239240512</v>
+        <v>0.007965417965667059</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.09309933333333333</v>
+        <v>0.254776</v>
       </c>
       <c r="N11">
-        <v>0.279298</v>
+        <v>0.764328</v>
       </c>
       <c r="O11">
-        <v>0.09868343413743418</v>
+        <v>0.2586256426914624</v>
       </c>
       <c r="P11">
-        <v>0.09868343413743418</v>
+        <v>0.2586256426914624</v>
       </c>
       <c r="Q11">
-        <v>0.01672982606755555</v>
+        <v>0.002063940376</v>
       </c>
       <c r="R11">
-        <v>0.150568434608</v>
+        <v>0.018575463384</v>
       </c>
       <c r="S11">
-        <v>0.006692620937366474</v>
+        <v>0.002060061340676765</v>
       </c>
       <c r="T11">
-        <v>0.006692620937366474</v>
+        <v>0.002060061340676764</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1796986666666667</v>
+        <v>0.008101000000000001</v>
       </c>
       <c r="H12">
-        <v>0.539096</v>
+        <v>0.024303</v>
       </c>
       <c r="I12">
-        <v>0.06781909239240512</v>
+        <v>0.007965417965667061</v>
       </c>
       <c r="J12">
-        <v>0.06781909239240512</v>
+        <v>0.007965417965667059</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>1.324506</v>
       </c>
       <c r="O12">
-        <v>0.4679833031945678</v>
+        <v>0.4481730559376317</v>
       </c>
       <c r="P12">
-        <v>0.4679833031945678</v>
+        <v>0.4481730559376316</v>
       </c>
       <c r="Q12">
-        <v>0.07933732073066667</v>
+        <v>0.003576607702</v>
       </c>
       <c r="R12">
-        <v>0.714035886576</v>
+        <v>0.032189469318</v>
       </c>
       <c r="S12">
-        <v>0.03173820287745533</v>
+        <v>0.00356988571149352</v>
       </c>
       <c r="T12">
-        <v>0.03173820287745533</v>
+        <v>0.003569885711493519</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1796986666666667</v>
+        <v>0.008101000000000001</v>
       </c>
       <c r="H13">
-        <v>0.539096</v>
+        <v>0.024303</v>
       </c>
       <c r="I13">
-        <v>0.06781909239240512</v>
+        <v>0.007965417965667061</v>
       </c>
       <c r="J13">
-        <v>0.06781909239240512</v>
+        <v>0.007965417965667059</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4088126666666667</v>
+        <v>0.288837</v>
       </c>
       <c r="N13">
-        <v>1.226438</v>
+        <v>0.866511</v>
       </c>
       <c r="O13">
-        <v>0.433333262667998</v>
+        <v>0.2932013013709059</v>
       </c>
       <c r="P13">
-        <v>0.4333332626679979</v>
+        <v>0.2932013013709059</v>
       </c>
       <c r="Q13">
-        <v>0.07346309111644445</v>
+        <v>0.002339868537</v>
       </c>
       <c r="R13">
-        <v>0.661167820048</v>
+        <v>0.021058816833</v>
       </c>
       <c r="S13">
-        <v>0.02938826857758331</v>
+        <v>0.002335470913496777</v>
       </c>
       <c r="T13">
-        <v>0.02938826857758331</v>
+        <v>0.002335470913496776</v>
       </c>
     </row>
   </sheetData>
